--- a/raw/1934election.xlsx
+++ b/raw/1934election.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Dropbox/MyData/USvoting/historical voting/1920to1974/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D4CAC92-5962-4444-B2CB-DC85B899DAD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9232482-9A34-8C4B-B654-ACAB8BED935E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="17680" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8143,7 +8143,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -8450,8 +8450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H1563"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="200" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="A1327" zoomScale="200" workbookViewId="0">
+      <selection activeCell="D1341" sqref="D1341"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -38742,7 +38742,7 @@
         <v>2114</v>
       </c>
       <c r="D1340">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E1340" t="s">
         <v>2487</v>

--- a/raw/1934election.xlsx
+++ b/raw/1934election.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Dropbox/MyData/USvoting/historical voting/1920to1974/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9232482-9A34-8C4B-B654-ACAB8BED935E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{017FC190-8456-3D44-B6F7-E79C81232A29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="17680" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7952" uniqueCount="2535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7951" uniqueCount="2535">
   <si>
     <t>State</t>
   </si>
@@ -8450,8 +8450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H1563"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1327" zoomScale="200" workbookViewId="0">
-      <selection activeCell="D1341" sqref="D1341"/>
+    <sheetView tabSelected="1" topLeftCell="B1274" zoomScale="200" workbookViewId="0">
+      <selection activeCell="D1285" sqref="D1285"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -37468,8 +37468,8 @@
       <c r="C1284" t="s">
         <v>6</v>
       </c>
-      <c r="D1284" t="s">
-        <v>1228</v>
+      <c r="D1284">
+        <v>30</v>
       </c>
       <c r="E1284" t="s">
         <v>2470</v>
